--- a/file_1.xlsx
+++ b/file_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2C0F3F-992B-4602-A3E6-4450B4344FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1839982-0842-430B-9DE9-9B8C8124F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>C1</t>
   </si>
@@ -39,6 +39,9 @@
     <t>C3</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -48,6 +51,9 @@
     <t>x</t>
   </si>
   <si>
+    <t>extra</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>c</t>
@@ -415,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,38 +442,47 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
